--- a/docs/HW-2.xlsx
+++ b/docs/HW-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\MathsHub_AQA_Python\06_qa-mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MathsHub_AQA\06_qa-mobile\qa-mobile\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE745B-BF7B-4A01-ABF9-A97AA3AA9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89096A-EE30-4133-B583-B087FF83608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2130" windowWidth="16920" windowHeight="13185" xr2:uid="{5CE6EBB5-A8B1-4B4C-8B97-39C240FA389F}"/>
+    <workbookView xWindow="-90" yWindow="1485" windowWidth="21000" windowHeight="13185" xr2:uid="{5CE6EBB5-A8B1-4B4C-8B97-39C240FA389F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,6 +195,172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C92014-FC46-443F-9C5F-F7DAFB9FAE35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790949" y="819150"/>
+          <a:ext cx="4600575" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" u="none"/>
+            <a:t>Не</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" u="none" baseline="0"/>
+            <a:t> выходит с эмуляторами пока, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>lambdatest </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" u="none" baseline="0"/>
+            <a:t>и </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>testingbot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" u="none" baseline="0"/>
+            <a:t> хотят денег, бесплатные устройства заняты видители, в </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>saucelabs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> не могу никак зарегистрироваться,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> а в </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>browserstack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> приложение из апк не работает, из маркета только и успеваю авторизоваться в гугле и скачать приложение. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ в эпле учетку создать не получается, говорит попробуйте позже, а установочный файл где-нибудь на просторах не вышло пока найти</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,7 +663,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,21 +685,21 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -541,64 +707,64 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -606,52 +772,52 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -659,28 +825,28 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -697,5 +863,6 @@
     <mergeCell ref="A2:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>